--- a/単体テスト成果物アンプル/単体テスト仕様書.xlsx
+++ b/単体テスト成果物アンプル/単体テスト仕様書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>単体テスト仕様書</t>
   </si>
@@ -499,8 +499,569 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <r>
-      <t>桁数が4桁以下だと"</t>
+    <t>アカウントに4桁以下16桁以上を入力する</t>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式：4到16位由 字母，数字，下划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，减号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>成"のアラートが出る</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>"用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式:2-20个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>字"のアラートが出る</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザー名が6桁以下16桁以上を入力する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>不具合</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码に入力されたパスワードと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码一致しないと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"两次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入的密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不匹配"のアラートが出る</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码と密码一致すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"注册成功"のアラートが出る</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>登録画面へ遷移される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>業務の観点からこれ不具合だと思う、"用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>!格式:2-20个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>字"アラートは用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名に入力されるときに判断されるの条件だと思う</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名は漢字にすると次に進める</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>パスワードが入力しないとき"用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式:2-20个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>字"のアラートが出る</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名の</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>桁数が16桁以上入力すると"</t>
     </r>
     <r>
       <rPr>
@@ -573,6 +1134,92 @@
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>桁数が4桁以下入力すると"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式：4到16位由 字母，数字，下划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，减号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>成"のアラートが出る</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
     <rPh sb="4" eb="5">
       <t>ケタ</t>
     </rPh>
@@ -582,7 +1229,400 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>アカウントに</t>
+    <r>
+      <t>桁数が16桁以上入力すると"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式：4到16位由 字母，数字，下划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，减号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>成"のアラートが出る</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名にローマ字のみ入力できる</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名に数字のみ入力できる</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ローマ字と数字で入力できる</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>パスワードが6桁以下入力するとき"密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式: 6-20个字母、数字、下划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"が出る</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>パスワードが20桁以上入力するとき"密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！格式: 6-20个字母、数字、下划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"が出る</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パスワードローマ字と数字組み合わせて大丈夫です</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码に何も入力しないとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"两次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入的密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不匹配"のアラートが出る</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -802,7 +1842,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -843,6 +1883,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,62 +1958,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1595,18 +2638,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>85848</xdr:rowOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1620,8 +2663,55 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="25445208"/>
-          <a:ext cx="8008620" cy="5804412"/>
+          <a:off x="0" y="25191720"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>123907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="112643" y="33342469"/>
+          <a:ext cx="14630400" cy="7757160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1642,24 +2732,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>506971</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65574</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>129364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1667,8 +2757,619 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="32461200"/>
-          <a:ext cx="7822171" cy="5669280"/>
+          <a:off x="0" y="42869223"/>
+          <a:ext cx="11647974" cy="6350870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>160382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="44824" y="50811954"/>
+          <a:ext cx="9359152" cy="5099934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>546467</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="60189035"/>
+          <a:ext cx="12738467" cy="6941372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355287</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>164054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="81928446"/>
+          <a:ext cx="8280087" cy="4511937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53395</xdr:colOff>
+      <xdr:row>553</xdr:row>
+      <xdr:rowOff>18667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="91807552"/>
+          <a:ext cx="6758995" cy="3685233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186314</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>56478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="98306965"/>
+          <a:ext cx="11159114" cy="6080760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>663</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="100462080"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>713</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="108844080"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>718</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>764</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="117393720"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>768</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>814</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="125790960"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>826</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1046" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="135529320"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>876</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>922</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="143911320"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>927</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>973</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1049" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="152476200"/>
+          <a:ext cx="14630400" cy="7848600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322966</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>164053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17929" y="57060353"/>
+          <a:ext cx="8839437" cy="4816735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,8 +3650,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:M17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1970,21 +3671,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
@@ -2001,21 +3702,21 @@
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="10" t="s">
         <v>6</v>
       </c>
@@ -2055,145 +3756,145 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="28">
+      <c r="A5" s="17">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="18">
         <v>44349</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1">
-      <c r="A6" s="28">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="18">
         <v>44349</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1">
-      <c r="A7" s="28">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="18">
         <v>44349</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="30.6" customHeight="1">
-      <c r="A9" s="28">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -2211,56 +3912,56 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="31">
+      <c r="N9" s="18">
         <v>44722</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" ht="105" customHeight="1">
-      <c r="A10" s="28">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="35" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="31">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="18">
         <v>44722</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="48.6" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="30" t="s">
         <v>36</v>
       </c>
@@ -2269,471 +3970,560 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="31">
+      <c r="N11" s="18">
         <v>44722</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="32" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A15" s="28">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="18">
+        <v>44722</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" ht="46.8" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A16" s="28">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A17" s="28">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A18" s="28">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A19" s="28">
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A20" s="28">
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A21" s="28">
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A22" s="28">
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A23" s="28">
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A24" s="28">
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A25" s="28">
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+    </row>
+    <row r="25" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A26" s="28">
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+    </row>
+    <row r="26" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A27" s="28">
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+    </row>
+    <row r="27" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A28" s="28">
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="28" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" ht="29.4" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17" ht="13.05" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="27"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="P33:Q33"/>
@@ -2750,85 +4540,6 @@
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:M30"/>
     <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.31496062992126" bottom="0.27559055118110198" header="0.35433070866141703" footer="0.15748031496063"/>
@@ -2866,10 +4577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A149"/>
+  <dimension ref="A1:A926"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView topLeftCell="A918" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A824" sqref="A824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2896,12 +4607,130 @@
     </row>
     <row r="149" spans="1:1" ht="14.4">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="14.4">
+      <c r="A200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="14.4">
+      <c r="A250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="14.4">
+      <c r="A251" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="14.4">
+      <c r="A294" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="18" customHeight="1"/>
+    <row r="331" spans="1:1" ht="18" customHeight="1">
+      <c r="A331" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="18" customHeight="1">
+      <c r="A332" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="18" customHeight="1"/>
+    <row r="334" spans="1:1" ht="18" customHeight="1"/>
+    <row r="335" spans="1:1" ht="18" customHeight="1"/>
+    <row r="336" spans="1:1" ht="18" customHeight="1"/>
+    <row r="337" ht="18" customHeight="1"/>
+    <row r="338" ht="18" customHeight="1"/>
+    <row r="339" ht="18" customHeight="1"/>
+    <row r="340" ht="18" customHeight="1"/>
+    <row r="341" ht="18" customHeight="1"/>
+    <row r="342" ht="18" customHeight="1"/>
+    <row r="343" ht="18" customHeight="1"/>
+    <row r="344" ht="18" customHeight="1"/>
+    <row r="345" ht="18" customHeight="1"/>
+    <row r="346" ht="18" customHeight="1"/>
+    <row r="347" ht="18" customHeight="1"/>
+    <row r="348" ht="18" customHeight="1"/>
+    <row r="368" spans="1:1" ht="14.4">
+      <c r="A368" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="14.4">
+      <c r="A369" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="14.4">
+      <c r="A465" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="14.4">
+      <c r="A516" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="14.4">
+      <c r="A616" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" ht="14.4">
+      <c r="A666" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" ht="14.4">
+      <c r="A718" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" ht="14.4">
+      <c r="A767" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" ht="14.4">
+      <c r="A824" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>